--- a/data/hotels_by_city/Houston/Houston_shard_201.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_201.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="159">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55456-d98483-Reviews-Econo_Lodge-Baytown_Texas.html</t>
   </si>
   <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
@@ -139,6 +148,351 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r569474954-Econo_Lodge-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>55456</t>
+  </si>
+  <si>
+    <t>98483</t>
+  </si>
+  <si>
+    <t>569474954</t>
+  </si>
+  <si>
+    <t>03/29/2018</t>
+  </si>
+  <si>
+    <t>Should be CONDEMDED</t>
+  </si>
+  <si>
+    <t>When we pulled up we thought this place was abandoned. It should be. Dirty, smelly, flat out DISGUSTING. Worst place I have EVER stayed. Who would enjoy this hotel? Rats, cockroaches, druggies and hookers. Should be condemded. This place is an insult to humanity.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r564901111-Econo_Lodge-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>564901111</t>
+  </si>
+  <si>
+    <t>03/06/2018</t>
+  </si>
+  <si>
+    <t>Worst Place ever...run away</t>
+  </si>
+  <si>
+    <t>I reserved this hotel using my points for one night. When I arrived at the hotel, there was a silver ford truck in the drive way doing prostitution dealings, and there were 8 total cars on this property 4 of which were doing drug dealings out of the them. There was windows broken to the rooms, doorways that were cracked where you could see through to the inside of the room. Completely unsafe. No landscaping done on the grounds. The hotel in the pictures online, is no where near what this property actually looks like.When I went in to cancel the reservation and try to get them to refund my points to my choice account, The person at the desk to me and my daughter "to go hell and we don't care if you stay here or not."MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>I reserved this hotel using my points for one night. When I arrived at the hotel, there was a silver ford truck in the drive way doing prostitution dealings, and there were 8 total cars on this property 4 of which were doing drug dealings out of the them. There was windows broken to the rooms, doorways that were cracked where you could see through to the inside of the room. Completely unsafe. No landscaping done on the grounds. The hotel in the pictures online, is no where near what this property actually looks like.When I went in to cancel the reservation and try to get them to refund my points to my choice account, The person at the desk to me and my daughter "to go hell and we don't care if you stay here or not."More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r554485215-Econo_Lodge-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>554485215</t>
+  </si>
+  <si>
+    <t>01/17/2018</t>
+  </si>
+  <si>
+    <t>The worst of the worst</t>
+  </si>
+  <si>
+    <t>If you're looking for a night off from sleeping in a dumpster you'll miss the dumpster.I don't know which was worse, the room or the front desk employee.Ill start with the room. Smelly, dirty, cigarette butts in the bathroom, every turn of my head found a more grotesque image. I wanted to bathe in hand sanitizer.Next, the "wonderfully pleasant" individual behind the front desk. He seemed to be better suited as a consentration camp mens room attendant. His nasty demeanor was only shadowed by his argumentative negative view of any guest staying at this no-tell motel.My advice? Sleep in the trunk of your car.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r497023594-Econo_Lodge-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>497023594</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>econo lodge</t>
+  </si>
+  <si>
+    <t>Wonderful place beyond the world some adjustment in stay staff help every way possible it is exactly as show in the picture clean and good locality this is perfect Hotel to stay baytown is very beautiful</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r450564094-Econo_Lodge-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>450564094</t>
+  </si>
+  <si>
+    <t>01/08/2017</t>
+  </si>
+  <si>
+    <t>Restful and nice rooms</t>
+  </si>
+  <si>
+    <t>Enjoyed the nights sleep. And felt safe Quick and curtious. Very helpful and handicap accessible. Last minute booking but was still fast and friendly service and made sure we were happy with our room we received.  Nice and slept well</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r446491211-Econo_Lodge-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>446491211</t>
+  </si>
+  <si>
+    <t>12/24/2016</t>
+  </si>
+  <si>
+    <t>Great hotel and Staff</t>
+  </si>
+  <si>
+    <t>The hotel's staff is very friendly. They are willing to work with any accommodations. The hotel rooms were also decent - good quality. In addition to that the hotel is very affordable. I would highly recommend staying here again.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r378326597-Econo_Lodge-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>378326597</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t>The lobby was spacious, and people were friendly. Especially the room was not bad at all. I haven't tried breakfast there so I have no idea what it looks like but overall, good for the price. Will definitely return.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Econo L, General Manager at Econo Lodge, responded to this reviewResponded December 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 24, 2016</t>
+  </si>
+  <si>
+    <t>The lobby was spacious, and people were friendly. Especially the room was not bad at all. I haven't tried breakfast there so I have no idea what it looks like but overall, good for the price. Will definitely return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r358033673-Econo_Lodge-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>358033673</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>HORRENDOUS HOTEL.!!!</t>
+  </si>
+  <si>
+    <t>We booked this hotel via Verizon smart rewards program . On verizon website this hotel name was somehow different i.e. QUALITY INN BAYTOWN and it was rated 4 start also . Therefore per the rating we booked this via verizon. When we finally reached the location first of all hotel name was changed from QUALITY INN - 4 STAR TO ECONO LODGE - 2 STAR . LADY ON THE FRONT DESK confirmed they have recently changed the name . when we entered the room provided , there was extremely foul smell was coming from every corner of the room plus there were weird insects were flying , crawling on the carpets . extreme mould over the carpet and the bedsheets . In two words .HORRIBLE HOTEL .!! NEVER EVER THINK OF TO STAY IN THIS HOTEL PLEASE.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>We booked this hotel via Verizon smart rewards program . On verizon website this hotel name was somehow different i.e. QUALITY INN BAYTOWN and it was rated 4 start also . Therefore per the rating we booked this via verizon. When we finally reached the location first of all hotel name was changed from QUALITY INN - 4 STAR TO ECONO LODGE - 2 STAR . LADY ON THE FRONT DESK confirmed they have recently changed the name . when we entered the room provided , there was extremely foul smell was coming from every corner of the room plus there were weird insects were flying , crawling on the carpets . extreme mould over the carpet and the bedsheets . In two words .HORRIBLE HOTEL .!! NEVER EVER THINK OF TO STAY IN THIS HOTEL PLEASE.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r318186020-Econo_Lodge-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>318186020</t>
+  </si>
+  <si>
+    <t>10/12/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walked in and ran out! </t>
+  </si>
+  <si>
+    <t>Disgusting disgusting disgusting!!!!! Do not stay here!!!!!! Opened the door to and disgusting red stain on the carpet and overwhelming musty stench! Ac unit was caked in dust and the curtains were assaulted by Freddy Kruger! Booked this place through my husbands company benefits website and I'm pretty sure they got this place confused with somewhere else. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Disgusting disgusting disgusting!!!!! Do not stay here!!!!!! Opened the door to and disgusting red stain on the carpet and overwhelming musty stench! Ac unit was caked in dust and the curtains were assaulted by Freddy Kruger! Booked this place through my husbands company benefits website and I'm pretty sure they got this place confused with somewhere else. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r269212268-Econo_Lodge-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>269212268</t>
+  </si>
+  <si>
+    <t>05/01/2015</t>
+  </si>
+  <si>
+    <t>Would give it No stars if possible.</t>
+  </si>
+  <si>
+    <t>Rooms had mold growing on the lamps and walls. Smelled like a sweaty sock and cigarettes. Absolutely the worst hotel we've ever stayed in. Management not helpful at all. Manager extremely rude. Grounds were trashy. A bar on the left side called Shady's. Bunch of drunks screaming / yelling and smoking outside on the covered area til all hours of the night.Had brown stains on the pillows. I would advise anyone to stay anywhere else but here.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r261782947-Econo_Lodge-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>261782947</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>Towels and sheets dirty</t>
+  </si>
+  <si>
+    <t>Girl at the front desk, i believe her name was Ana, was great and very sweet. Quick and easy check in and was able to guide us around town for restaurant ideas. In the room, when I was going to take a shower the towels were dirty! They had stains on them and some even had holes. Horrible!!! Remote wasn't working so I called the f/d and Ana was able to help me get it to work again. She also was able to get me fresh and CLEAN set of towels, which was a relief. Friendly staff, horrible at having fresh towels and sheets in the room though.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r206888428-Econo_Lodge-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>206888428</t>
+  </si>
+  <si>
+    <t>05/24/2014</t>
+  </si>
+  <si>
+    <t>baytown</t>
+  </si>
+  <si>
+    <t>It was not a plesant stay. Location is not very convenient. Stuffs are friendly and good. Room was not upto my satisfaction. In resturant, not all menu is available as per menu card. I would not recommend it for my friends.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r157129346-Econo_Lodge-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>157129346</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>This is the nasty place</t>
+  </si>
+  <si>
+    <t>This place is disgusting the service is the worst! The manager is rude and knocks on your door at late hours and as for the room the bathroom door was stinking and o was late for work trying to get out the floor had water all over ask the mg to move me rooms it took a week they move me rooms and the next room was no better it smelled of mold! and roaches and ants every where and they don't clean i seen a condom! behind the dresser there is no water pressure what so ever and when you rent for a week you don't get house keeping all together these rooms are for dope heads!MoreShow less</t>
+  </si>
+  <si>
+    <t>This place is disgusting the service is the worst! The manager is rude and knocks on your door at late hours and as for the room the bathroom door was stinking and o was late for work trying to get out the floor had water all over ask the mg to move me rooms it took a week they move me rooms and the next room was no better it smelled of mold! and roaches and ants every where and they don't clean i seen a condom! behind the dresser there is no water pressure what so ever and when you rent for a week you don't get house keeping all together these rooms are for dope heads!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r142209770-Econo_Lodge-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>142209770</t>
+  </si>
+  <si>
+    <t>10/07/2012</t>
+  </si>
+  <si>
+    <t>Absolutely Horrible</t>
+  </si>
+  <si>
+    <t>When you decide to stay at a name-brand hotel you expect a certain level of accommodation. I have stayed at many Quality Inn locations; but have never had as poor of an experience as here. The room was dirty. I had to clean the coffee table and there was some sort of crud all over the floors. When I reluctantly tried to take a shower because the bathtub was dirty, there was no water so I had to take a washcloth bath in the sink! Only warm water would come out of the sink! Coffee pot was missing parts so I could not make any coffee. Terribly disappointing</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r129188256-Econo_Lodge-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>129188256</t>
+  </si>
+  <si>
+    <t>05/01/2012</t>
+  </si>
+  <si>
+    <t>Decent hotel</t>
+  </si>
+  <si>
+    <t>Only stayed for one night in this hotel and it was okay. Found it easy enough as was travelling from Dallas to New Orleans and stopped off after visiting Houston.Rooms were okay and no issues at all.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r14404665-Econo_Lodge-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>14404665</t>
+  </si>
+  <si>
+    <t>03/20/2008</t>
+  </si>
+  <si>
+    <t>Worst Quality Inn Ever</t>
+  </si>
+  <si>
+    <t>This was very disapointing, I have stayed at many hotels but this one  was horrible!! We paid $60 a night for a room with no towels, dirty bed linens, dirty floor, and a filthy room. We checked in and went out all day, when we arrived back later that night we found all this out. We went to the front desk at 11pm to get towels and he gave us one. We asked for new bedsheets and he couldn't get that until the next day. we asked if they could vacuum the room and clean it and he said he couldn't.  We went back to the room and my wife and I discovered many more stains in the bed. We went back to the hotel desk and were going to check out but the man called his manager and he offered us another room. We decided to try it and it did seem much better then the first one so we stayed that night.. We were tired so we went to sleep But the next morning we checked out., we were supposed to stay there a week. My wife found blood stains on the walls and under the mattress. This place needs to be upgraded and redone.DON'T STAY HERE!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>This was very disapointing, I have stayed at many hotels but this one  was horrible!! We paid $60 a night for a room with no towels, dirty bed linens, dirty floor, and a filthy room. We checked in and went out all day, when we arrived back later that night we found all this out. We went to the front desk at 11pm to get towels and he gave us one. We asked for new bedsheets and he couldn't get that until the next day. we asked if they could vacuum the room and clean it and he said he couldn't.  We went back to the room and my wife and I discovered many more stains in the bed. We went back to the hotel desk and were going to check out but the man called his manager and he offered us another room. We decided to try it and it did seem much better then the first one so we stayed that night.. We were tired so we went to sleep But the next morning we checked out., we were supposed to stay there a week. My wife found blood stains on the walls and under the mattress. This place needs to be upgraded and redone.DON'T STAY HERE!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r3389820-Econo_Lodge-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>3389820</t>
+  </si>
+  <si>
+    <t>04/19/2005</t>
+  </si>
+  <si>
+    <t>Don't stay here !!!</t>
+  </si>
+  <si>
+    <t>This hotel was not at all I would expect from a Quality Inn.  The whole room is old and smelly and really not very nice.  I have stayed in some dumps before but this room was not worth what I paid for it.  If the price would have been 29.95 or something like that, I would have said, ok for the money but I paid 57.50 a night and I was not at all impressed.  It was during the drag races in Baytown and everywhere else was $100 plus a night.  I just so happened to sneek in this hotel by mistake at the regular rate by an oversite on the website.  The people were really nice, however, the hotel really needs a make over bad.  The bed made my back hurt and the smell in the room only got worse as the 3 days I stayed there went by.  The shower was really weak and I just didnt like the hotel at all.  WILL NOT STAY there again!  I will pay the $100.00 plus to stay somewhere else or go to Channelview and stay there in the holiday inn on Highway 10.  Now THAT is a nice hotel....   GOOD BYE!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was not at all I would expect from a Quality Inn.  The whole room is old and smelly and really not very nice.  I have stayed in some dumps before but this room was not worth what I paid for it.  If the price would have been 29.95 or something like that, I would have said, ok for the money but I paid 57.50 a night and I was not at all impressed.  It was during the drag races in Baytown and everywhere else was $100 plus a night.  I just so happened to sneek in this hotel by mistake at the regular rate by an oversite on the website.  The people were really nice, however, the hotel really needs a make over bad.  The bed made my back hurt and the smell in the room only got worse as the 3 days I stayed there went by.  The shower was really weak and I just didnt like the hotel at all.  WILL NOT STAY there again!  I will pay the $100.00 plus to stay somewhere else or go to Channelview and stay there in the holiday inn on Highway 10.  Now THAT is a nice hotel....   GOOD BYE!!!!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +886,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +918,1124 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>92</v>
+      </c>
+      <c r="X8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>92</v>
+      </c>
+      <c r="X9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>85</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>92</v>
+      </c>
+      <c r="X10" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" t="s">
+        <v>127</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" t="s">
+        <v>132</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>139</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" t="s">
+        <v>149</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>150</v>
+      </c>
+      <c r="O17" t="s">
+        <v>151</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s">
+        <v>157</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_201.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_201.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="232">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,54 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r600926664-Econo_Lodge-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>55456</t>
+  </si>
+  <si>
+    <t>98483</t>
+  </si>
+  <si>
+    <t>600926664</t>
+  </si>
+  <si>
+    <t>07/29/2018</t>
+  </si>
+  <si>
+    <t>Don't bother drive a few more blocks!!!</t>
+  </si>
+  <si>
+    <t>This place is horrible does not have anything that they say but a pool. If you want to meet the rudest person on earth than you will find him here his name is Rikki maintiance manager and most likely you will see him cussing and screaming at staff or you will meet him at your door about 10:30 threatening you about late fees if you don't get out by 11!!No lies of you want to see the most rudest crudest person on this planet then stay here cause I make you a promise unless I get this a$$ fired tomorrow then you will meet him!!</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r578160345-Econo_Lodge-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>578160345</t>
+  </si>
+  <si>
+    <t>05/05/2018</t>
+  </si>
+  <si>
+    <t>EconoLodge,Baytown,TXHighway 146N</t>
+  </si>
+  <si>
+    <t>This place was absolutely horrible. The ice machine was broken but they did not do anything to accommodate us. Plus the shower didn't work. The water wouldn't turn on. by then I was ready to leave. This place gets an F</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r569474954-Econo_Lodge-Baytown_Texas.html</t>
   </si>
   <si>
-    <t>55456</t>
-  </si>
-  <si>
-    <t>98483</t>
-  </si>
-  <si>
     <t>569474954</t>
   </si>
   <si>
@@ -177,9 +213,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r564901111-Econo_Lodge-Baytown_Texas.html</t>
   </si>
   <si>
@@ -219,6 +252,42 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r511145356-Econo_Lodge-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>511145356</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay, the staff was courteous and very helpful. There is a cool bar in the hotel that serves great drinks as well! I needed extra towels and they were generous and quick to deliver them!!</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r499822660-Econo_Lodge-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>499822660</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t>Very good</t>
+  </si>
+  <si>
+    <t>Hey my name is santosh i m from india ,This was my first visit to usa i thought i m going to have good time with my family, but i never thought i m going to have great time in baytown  all the staff of hotel are very co-operative helpfull, amezing room facility really we had great time if anybody visiting this place plz stay this hotel and enjoy......</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r497023594-Econo_Lodge-Baytown_Texas.html</t>
   </si>
   <si>
@@ -276,6 +345,51 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r437602624-Econo_Lodge-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>437602624</t>
+  </si>
+  <si>
+    <t>11/15/2016</t>
+  </si>
+  <si>
+    <t>Good hotel &amp; good staff</t>
+  </si>
+  <si>
+    <t>The front desk staff was very accommodating and friendly. Overall, the hotel is clean and affordable. It is also conveniently located near restaurants and fast food. I would recommend this place to others.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r379915061-Econo_Lodge-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>379915061</t>
+  </si>
+  <si>
+    <t>06/05/2016</t>
+  </si>
+  <si>
+    <t>Very misleading</t>
+  </si>
+  <si>
+    <t>The pictures are totally wrong on the website.  From the street it looks closed.  There is a lounge connected to the hotel which is aptly named Shadys lounge. There were dead bugs On the floor. I did not feel safe. There is not a free breakfast.  Do not stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Econo L, General Manager at Econo Lodge, responded to this reviewResponded December 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 24, 2016</t>
+  </si>
+  <si>
+    <t>The pictures are totally wrong on the website.  From the street it looks closed.  There is a lounge connected to the hotel which is aptly named Shadys lounge. There were dead bugs On the floor. I did not feel safe. There is not a free breakfast.  Do not stay here.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r378326597-Econo_Lodge-Baytown_Texas.html</t>
   </si>
   <si>
@@ -294,12 +408,6 @@
     <t>February 2016</t>
   </si>
   <si>
-    <t>Econo L, General Manager at Econo Lodge, responded to this reviewResponded December 24, 2016</t>
-  </si>
-  <si>
-    <t>Responded December 24, 2016</t>
-  </si>
-  <si>
     <t>The lobby was spacious, and people were friendly. Especially the room was not bad at all. I haven't tried breakfast there so I have no idea what it looks like but overall, good for the price. Will definitely return.More</t>
   </si>
   <si>
@@ -345,6 +453,42 @@
     <t>Disgusting disgusting disgusting!!!!! Do not stay here!!!!!! Opened the door to and disgusting red stain on the carpet and overwhelming musty stench! Ac unit was caked in dust and the curtains were assaulted by Freddy Kruger! Booked this place through my husbands company benefits website and I'm pretty sure they got this place confused with somewhere else. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r291218934-Econo_Lodge-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>291218934</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>Worst stay EVER!!! Stay away!!!!!</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel where they say on the phone "We guarantee your stay" What a joke! There were so many problems with this hotel and when we saw some of the reviews we gave them the benefit of the doubt and were told it was during a hurricane and all issues were fixed. That was no true. Restaurant food was horrible! Kids would not touch it. Served drinks in a 6oz Styrofoam cups! Would not give clean towels unless you turned in towels. Only allowed 2 bath towels per room even though we had families in each room up 4 people. Ice machine never worked. There are cigarette burns on the night stands of "non smoking" rooms. No top sheet some nights. The TV was out 4 of 5 days we were there. Mushrooms growing in one of the air conditioners! Asked about some sort of re-imbursement as World Series was in town and there was no where else to go within 30 miles and manager kept saying how he was business owner for 20+ years and he would not give any break. Not even $5.00 a night! The owner does not know customer satisfaction, only money! Don't waste yours here!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel where they say on the phone "We guarantee your stay" What a joke! There were so many problems with this hotel and when we saw some of the reviews we gave them the benefit of the doubt and were told it was during a hurricane and all issues were fixed. That was no true. Restaurant food was horrible! Kids would not touch it. Served drinks in a 6oz Styrofoam cups! Would not give clean towels unless you turned in towels. Only allowed 2 bath towels per room even though we had families in each room up 4 people. Ice machine never worked. There are cigarette burns on the night stands of "non smoking" rooms. No top sheet some nights. The TV was out 4 of 5 days we were there. Mushrooms growing in one of the air conditioners! Asked about some sort of re-imbursement as World Series was in town and there was no where else to go within 30 miles and manager kept saying how he was business owner for 20+ years and he would not give any break. Not even $5.00 a night! The owner does not know customer satisfaction, only money! Don't waste yours here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r289690752-Econo_Lodge-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>289690752</t>
+  </si>
+  <si>
+    <t>07/16/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIGHTMARE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rooms were filthy...  Aside from having to pay for our stay we had to go to a near by store to buy cleaning  supplies to clean our own rooms... Rooms smelled horrible..Rooms had dirt as they hadn't been cleaned in years...  Dirty bed sheets...  Mold on the walls... Stained walls and sofas... Breakfast made my kids sick was horrible plus food is frozen.. Management was horrible...  They don't have people skills... We weren't satisfied with our stay yet they didn't want to reimburse our money...  Many more problems with other families that joined us...  </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r269212268-Econo_Lodge-Baytown_Texas.html</t>
   </si>
   <si>
@@ -402,6 +546,45 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r203721875-Econo_Lodge-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>203721875</t>
+  </si>
+  <si>
+    <t>05/02/2014</t>
+  </si>
+  <si>
+    <t>Hotel of Horrors</t>
+  </si>
+  <si>
+    <t>My grandsons and I stayed here will attending the NHRA races in Baytown in April 2014.  What a horrible place!  The equipment is outdated; I was given a smoking room when I reserved a non-smoking room; light bulbs missing; plywood on the windows; a/c vents full of dust; no clothes hangers; electrical sockets hanging from the walls.  When teenagers call a place nasty, you know it's bad.  Men, do NOT bring your wives.  You will be sorry if you do.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r160812630-Econo_Lodge-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>160812630</t>
+  </si>
+  <si>
+    <t>05/15/2013</t>
+  </si>
+  <si>
+    <t>awful experience</t>
+  </si>
+  <si>
+    <t>Quality Inn - Not a good experience.I would expect this from a 39.99 motel  *No remote for TV  *Three of the four rooms we booked had no clock  *The occasional chair was heavily stained  *We had a queen bed with king sheets that drug on the ground  *Two of the four rooms had no Kleenex** In the a.m. we went to the house restaurant.  The tables had glass tops on top of table clothes that appeared pristine - - until you pulled out the chair and the cloth over hang ( about 36" wide and 24" overhang) felt and looked like someone had dusted with it and then threw food at it!  We left immediately.  "Info":  We pulled in late - - got the last four rooms in town  - due to an oil convention.  This "Quality" Inn was located at 300 So. Hwy 146 Business - - - which entered into a GPS takes you everywhere but there - - you would think for $90 a night they would give you GPS co-ordinates.  Once a desk person said, "Ohhhhh - - - let me give you another address for it - - - 300 So. Hwy 146 North Business - - on Alexander." - then it came together. We were not happy and this particular Inn should not represent your chain . . . I defy your CEO to stay at this particular Motel!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Quality Inn - Not a good experience.I would expect this from a 39.99 motel  *No remote for TV  *Three of the four rooms we booked had no clock  *The occasional chair was heavily stained  *We had a queen bed with king sheets that drug on the ground  *Two of the four rooms had no Kleenex** In the a.m. we went to the house restaurant.  The tables had glass tops on top of table clothes that appeared pristine - - until you pulled out the chair and the cloth over hang ( about 36" wide and 24" overhang) felt and looked like someone had dusted with it and then threw food at it!  We left immediately.  "Info":  We pulled in late - - got the last four rooms in town  - due to an oil convention.  This "Quality" Inn was located at 300 So. Hwy 146 Business - - - which entered into a GPS takes you everywhere but there - - you would think for $90 a night they would give you GPS co-ordinates.  Once a desk person said, "Ohhhhh - - - let me give you another address for it - - - 300 So. Hwy 146 North Business - - on Alexander." - then it came together. We were not happy and this particular Inn should not represent your chain . . . I defy your CEO to stay at this particular Motel!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r157129346-Econo_Lodge-Baytown_Texas.html</t>
   </si>
   <si>
@@ -453,6 +636,61 @@
     <t>Only stayed for one night in this hotel and it was okay. Found it easy enough as was travelling from Dallas to New Orleans and stopped off after visiting Houston.Rooms were okay and no issues at all.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r129143906-Econo_Lodge-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>129143906</t>
+  </si>
+  <si>
+    <t>04/30/2012</t>
+  </si>
+  <si>
+    <t>Very Nice Motel</t>
+  </si>
+  <si>
+    <t>We stayed here during the 2012 NHRA Spring Nationals. Our RV broke down and we found this motel at the last minute. The reviews were unfavorable so we were very apprehensive about staying here but had no choice as most motels in the area were sold out. We were pleasantly surprised! This property is very well maintained and managed.
+Staff - Friendly, helpful and accomodating. 
+Room- Very clean and appears to have been recently updated. The carpet was fresh and new, the bathroom has tiled tub/shower and clean, average quality towels, comfortable bed with crisp clean sheets and a down blanket, adequate pillows. The room had a mini fridge, microwave, nice furnishings, iron/ironing board, hairdryer, standard toiletries. Everything was in working order.
+Housekeeping - Exceptional. Room cleaned daily and smelled fresh. We had a nonsmoking room.
+Restaurant - We had the breakfast buffet which was ok. However, the servers were friendly and attentive. Free coffee and tea offered in the lobby each morning. There is menu service (varied selection) although we did not dine there.
+Pool - Did not use but it appeared to be well maintained.
+Grounds - Well maintained with ice and vending machines. Abundant light in parking areas and corridors.
+Negatives - Hard to find even using the GPS. The surrounding area was ok. Common sense rules apply - keep your vehicle locked. We did not experience any problems. 
+All in all, we had a pleasant stay...We stayed here during the 2012 NHRA Spring Nationals. Our RV broke down and we found this motel at the last minute. The reviews were unfavorable so we were very apprehensive about staying here but had no choice as most motels in the area were sold out. We were pleasantly surprised! This property is very well maintained and managed.Staff - Friendly, helpful and accomodating. Room- Very clean and appears to have been recently updated. The carpet was fresh and new, the bathroom has tiled tub/shower and clean, average quality towels, comfortable bed with crisp clean sheets and a down blanket, adequate pillows. The room had a mini fridge, microwave, nice furnishings, iron/ironing board, hairdryer, standard toiletries. Everything was in working order.Housekeeping - Exceptional. Room cleaned daily and smelled fresh. We had a nonsmoking room.Restaurant - We had the breakfast buffet which was ok. However, the servers were friendly and attentive. Free coffee and tea offered in the lobby each morning. There is menu service (varied selection) although we did not dine there.Pool - Did not use but it appeared to be well maintained.Grounds - Well maintained with ice and vending machines. Abundant light in parking areas and corridors.Negatives - Hard to find even using the GPS. The surrounding area was ok. Common sense rules apply - keep your vehicle locked. We did not experience any problems. All in all, we had a pleasant stay and were only minutes from Royal Purple Raceway via the Grand Parkway. I expressed to desk clerk the reviews that I read and they acknowledged this stating they were working to resolve them. I am extremely particular when I choose a hotel or motel. I would definitely recommend this property and stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>We stayed here during the 2012 NHRA Spring Nationals. Our RV broke down and we found this motel at the last minute. The reviews were unfavorable so we were very apprehensive about staying here but had no choice as most motels in the area were sold out. We were pleasantly surprised! This property is very well maintained and managed.
+Staff - Friendly, helpful and accomodating. 
+Room- Very clean and appears to have been recently updated. The carpet was fresh and new, the bathroom has tiled tub/shower and clean, average quality towels, comfortable bed with crisp clean sheets and a down blanket, adequate pillows. The room had a mini fridge, microwave, nice furnishings, iron/ironing board, hairdryer, standard toiletries. Everything was in working order.
+Housekeeping - Exceptional. Room cleaned daily and smelled fresh. We had a nonsmoking room.
+Restaurant - We had the breakfast buffet which was ok. However, the servers were friendly and attentive. Free coffee and tea offered in the lobby each morning. There is menu service (varied selection) although we did not dine there.
+Pool - Did not use but it appeared to be well maintained.
+Grounds - Well maintained with ice and vending machines. Abundant light in parking areas and corridors.
+Negatives - Hard to find even using the GPS. The surrounding area was ok. Common sense rules apply - keep your vehicle locked. We did not experience any problems. 
+All in all, we had a pleasant stay...We stayed here during the 2012 NHRA Spring Nationals. Our RV broke down and we found this motel at the last minute. The reviews were unfavorable so we were very apprehensive about staying here but had no choice as most motels in the area were sold out. We were pleasantly surprised! This property is very well maintained and managed.Staff - Friendly, helpful and accomodating. Room- Very clean and appears to have been recently updated. The carpet was fresh and new, the bathroom has tiled tub/shower and clean, average quality towels, comfortable bed with crisp clean sheets and a down blanket, adequate pillows. The room had a mini fridge, microwave, nice furnishings, iron/ironing board, hairdryer, standard toiletries. Everything was in working order.Housekeeping - Exceptional. Room cleaned daily and smelled fresh. We had a nonsmoking room.Restaurant - We had the breakfast buffet which was ok. However, the servers were friendly and attentive. Free coffee and tea offered in the lobby each morning. There is menu service (varied selection) although we did not dine there.Pool - Did not use but it appeared to be well maintained.Grounds - Well maintained with ice and vending machines. Abundant light in parking areas and corridors.Negatives - Hard to find even using the GPS. The surrounding area was ok. Common sense rules apply - keep your vehicle locked. We did not experience any problems. All in all, we had a pleasant stay and were only minutes from Royal Purple Raceway via the Grand Parkway. I expressed to desk clerk the reviews that I read and they acknowledged this stating they were working to resolve them. I am extremely particular when I choose a hotel or motel. I would definitely recommend this property and stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r115531116-Econo_Lodge-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>115531116</t>
+  </si>
+  <si>
+    <t>07/19/2011</t>
+  </si>
+  <si>
+    <t>Should be closed down!!!</t>
+  </si>
+  <si>
+    <t>Never give them a credit card. They make charges without your o.k.Filthy place and sorry help work there.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d98483-r14404665-Econo_Lodge-Baytown_Texas.html</t>
   </si>
   <si>
@@ -469,9 +707,6 @@
   </si>
   <si>
     <t>February 2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
     <t>This was very disapointing, I have stayed at many hotels but this one  was horrible!! We paid $60 a night for a room with no towels, dirty bed linens, dirty floor, and a filthy room. We checked in and went out all day, when we arrived back later that night we found all this out. We went to the front desk at 11pm to get towels and he gave us one. We asked for new bedsheets and he couldn't get that until the next day. we asked if they could vacuum the room and clean it and he said he couldn't.  We went back to the room and my wife and I discovered many more stains in the bed. We went back to the hotel desk and were going to check out but the man called his manager and he offered us another room. We decided to try it and it did seem much better then the first one so we stayed that night.. We were tired so we went to sleep But the next morning we checked out., we were supposed to stay there a week. My wife found blood stains on the walls and under the mattress. This place needs to be upgraded and redone.DON'T STAY HERE!!More</t>
@@ -1086,29 +1321,21 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>59</v>
-      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1124,7 +1351,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1133,22 +1360,22 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
         <v>62</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>63</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>64</v>
-      </c>
-      <c r="L4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>66</v>
       </c>
       <c r="O4" t="s">
         <v>53</v>
@@ -1165,7 +1392,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -1181,7 +1408,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1190,32 +1417,36 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
         <v>68</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>69</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" t="s">
         <v>70</v>
-      </c>
-      <c r="L5" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>72</v>
-      </c>
-      <c r="O5" t="s">
-        <v>59</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
@@ -1238,7 +1469,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1247,25 +1478,25 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
         <v>74</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>75</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>76</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>77</v>
       </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>78</v>
-      </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1279,7 +1510,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -1295,7 +1526,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1304,25 +1535,25 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
         <v>80</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>81</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>82</v>
-      </c>
-      <c r="L7" t="s">
-        <v>83</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1342,7 +1573,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -1358,7 +1589,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1367,49 +1598,39 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
         <v>87</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>88</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" t="s">
         <v>89</v>
-      </c>
-      <c r="L8" t="s">
-        <v>90</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3</v>
-      </c>
-      <c r="N8" t="s">
-        <v>91</v>
-      </c>
-      <c r="O8" t="s">
-        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>3</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3</v>
-      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>3</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>92</v>
-      </c>
-      <c r="X8" t="s">
-        <v>93</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
@@ -1425,7 +1646,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1434,49 +1655,39 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>1</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>92</v>
-      </c>
-      <c r="X9" t="s">
-        <v>93</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
@@ -1492,7 +1703,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1501,25 +1712,25 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="O10" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1530,14 +1741,10 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>92</v>
-      </c>
-      <c r="X10" t="s">
-        <v>93</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -1553,7 +1760,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1562,37 +1769,37 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1600,7 +1807,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
@@ -1616,7 +1823,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1625,39 +1832,43 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="O12" t="s">
-        <v>85</v>
-      </c>
-      <c r="P12" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
@@ -1673,7 +1884,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1682,49 +1893,43 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="O13" t="s">
-        <v>127</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>3</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>121</v>
+      </c>
+      <c r="X13" t="s">
+        <v>122</v>
+      </c>
       <c r="Y13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
@@ -1740,7 +1945,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1749,45 +1954,49 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
         <v>129</v>
       </c>
-      <c r="J14" t="s">
-        <v>130</v>
-      </c>
-      <c r="K14" t="s">
-        <v>131</v>
-      </c>
-      <c r="L14" t="s">
-        <v>132</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>121</v>
+      </c>
+      <c r="X14" t="s">
+        <v>122</v>
+      </c>
       <c r="Y14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
@@ -1803,7 +2012,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -1812,49 +2021,49 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" t="s">
+        <v>134</v>
+      </c>
+      <c r="L15" t="s">
         <v>135</v>
       </c>
-      <c r="J15" t="s">
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
         <v>136</v>
       </c>
-      <c r="K15" t="s">
-        <v>137</v>
-      </c>
-      <c r="L15" t="s">
-        <v>138</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>139</v>
-      </c>
       <c r="O15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>121</v>
+      </c>
+      <c r="X15" t="s">
+        <v>122</v>
+      </c>
       <c r="Y15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16">
@@ -1870,7 +2079,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -1879,22 +2088,26 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" t="s">
         <v>141</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>142</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
         <v>143</v>
       </c>
-      <c r="L16" t="s">
-        <v>144</v>
-      </c>
-      <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
+      <c r="O16" t="s">
+        <v>108</v>
+      </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
@@ -1904,8 +2117,12 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>121</v>
+      </c>
+      <c r="X16" t="s">
+        <v>122</v>
+      </c>
       <c r="Y16" t="s">
         <v>144</v>
       </c>
@@ -1950,23 +2167,19 @@
         <v>150</v>
       </c>
       <c r="O17" t="s">
-        <v>151</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="R17" t="n">
-        <v>3</v>
-      </c>
+      <c r="R17" t="s"/>
       <c r="S17" t="n">
         <v>1</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1974,7 +2187,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
@@ -1990,7 +2203,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -1999,43 +2212,801 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" t="s">
         <v>154</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>155</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>156</v>
       </c>
-      <c r="L18" t="s">
-        <v>157</v>
-      </c>
       <c r="M18" t="n">
-        <v>2</v>
-      </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>150</v>
+      </c>
+      <c r="O18" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>3</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>3</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
         <v>158</v>
+      </c>
+      <c r="J19" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s">
+        <v>161</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>162</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" t="s">
+        <v>165</v>
+      </c>
+      <c r="K20" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20" t="s">
+        <v>167</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>168</v>
+      </c>
+      <c r="O20" t="s">
+        <v>108</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K21" t="s">
+        <v>172</v>
+      </c>
+      <c r="L21" t="s">
+        <v>173</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>174</v>
+      </c>
+      <c r="O21" t="s">
+        <v>175</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" t="s">
+        <v>179</v>
+      </c>
+      <c r="L22" t="s">
+        <v>180</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>181</v>
+      </c>
+      <c r="O22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>183</v>
+      </c>
+      <c r="J23" t="s">
+        <v>184</v>
+      </c>
+      <c r="K23" t="s">
+        <v>185</v>
+      </c>
+      <c r="L23" t="s">
+        <v>186</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>187</v>
+      </c>
+      <c r="O23" t="s">
+        <v>108</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>190</v>
+      </c>
+      <c r="J24" t="s">
+        <v>191</v>
+      </c>
+      <c r="K24" t="s">
+        <v>192</v>
+      </c>
+      <c r="L24" t="s">
+        <v>193</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>195</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>196</v>
+      </c>
+      <c r="J25" t="s">
+        <v>197</v>
+      </c>
+      <c r="K25" t="s">
+        <v>198</v>
+      </c>
+      <c r="L25" t="s">
+        <v>199</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>200</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>202</v>
+      </c>
+      <c r="J26" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26" t="s">
+        <v>204</v>
+      </c>
+      <c r="L26" t="s">
+        <v>205</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>206</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>207</v>
+      </c>
+      <c r="J27" t="s">
+        <v>208</v>
+      </c>
+      <c r="K27" t="s">
+        <v>209</v>
+      </c>
+      <c r="L27" t="s">
+        <v>210</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>211</v>
+      </c>
+      <c r="O27" t="s">
+        <v>89</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>213</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>214</v>
+      </c>
+      <c r="J28" t="s">
+        <v>215</v>
+      </c>
+      <c r="K28" t="s">
+        <v>216</v>
+      </c>
+      <c r="L28" t="s">
+        <v>217</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>218</v>
+      </c>
+      <c r="O28" t="s">
+        <v>70</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>219</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>220</v>
+      </c>
+      <c r="J29" t="s">
+        <v>221</v>
+      </c>
+      <c r="K29" t="s">
+        <v>222</v>
+      </c>
+      <c r="L29" t="s">
+        <v>223</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>224</v>
+      </c>
+      <c r="O29" t="s">
+        <v>89</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>226</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>227</v>
+      </c>
+      <c r="J30" t="s">
+        <v>228</v>
+      </c>
+      <c r="K30" t="s">
+        <v>229</v>
+      </c>
+      <c r="L30" t="s">
+        <v>230</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
